--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_47.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_47.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_0</t>
+          <t>model_1_47_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999039425815615</v>
+        <v>0.9483710091662594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.827545084590306</v>
+        <v>0.7417341894948208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8192206507794656</v>
+        <v>0.7170668257600481</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998972914590604</v>
+        <v>0.936221554087555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000399841568679053</v>
+        <v>0.1809859736987375</v>
       </c>
       <c r="G2" t="n">
-        <v>1.153206813426493</v>
+        <v>1.727024664052843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6466372499729147</v>
+        <v>1.01203555884827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004818680446315682</v>
+        <v>0.1235802068228344</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03956010824157282</v>
+        <v>1.478722638018715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01999603882470358</v>
+        <v>0.4254244629763755</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006147674780067</v>
+        <v>0.9296966933327787</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02031095644748719</v>
+        <v>0.4321244729998107</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6488843352368</v>
+        <v>37.41867148819244</v>
       </c>
       <c r="O2" t="n">
-        <v>286.9840568784532</v>
+        <v>74.38325507641827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_2</t>
+          <t>model_1_47_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999059778372169</v>
+        <v>0.9484717006786005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8273804739019177</v>
+        <v>0.7416923264266435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.818516081544572</v>
+        <v>0.7169247972836307</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998555281326571</v>
+        <v>0.9406084245631793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003913697626785405</v>
+        <v>0.1806329985367216</v>
       </c>
       <c r="G3" t="n">
-        <v>1.154307565857708</v>
+        <v>1.727304602582506</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6491574532728577</v>
+        <v>1.01254358647313</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000677805132698073</v>
+        <v>0.1150799940483357</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04451199887821415</v>
+        <v>1.463640569549967</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01978306757503852</v>
+        <v>0.425009409939029</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006017418418118</v>
+        <v>0.929833805179371</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02009463111353305</v>
+        <v>0.4317028832920268</v>
       </c>
       <c r="N3" t="n">
-        <v>145.6917155205141</v>
+        <v>37.42257587707928</v>
       </c>
       <c r="O3" t="n">
-        <v>287.0268880637304</v>
+        <v>74.3871594653051</v>
       </c>
     </row>
     <row r="4">
@@ -610,242 +610,242 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999060411899611</v>
+        <v>0.948396394873361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8273581859203771</v>
+        <v>0.7415731610610143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818571156921208</v>
+        <v>0.7171571440733036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998595476390589</v>
+        <v>0.9376336756209896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003911060551894551</v>
+        <v>0.1808969838338645</v>
       </c>
       <c r="G4" t="n">
-        <v>1.154456605692896</v>
+        <v>1.728101461931174</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6489604518440846</v>
+        <v>1.011712495478711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006589471908701106</v>
+        <v>0.1208440117233112</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04379636943345829</v>
+        <v>1.473612027586435</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01977640147219547</v>
+        <v>0.4253198606153544</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006013363842492</v>
+        <v>0.9297312611041512</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02008786002623388</v>
+        <v>0.4320182232561675</v>
       </c>
       <c r="N4" t="n">
-        <v>145.6930635877286</v>
+        <v>37.41965511966571</v>
       </c>
       <c r="O4" t="n">
-        <v>287.0282361309451</v>
+        <v>74.38423870789153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_4</t>
+          <t>model_1_47_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999909296729463</v>
+        <v>0.9481551982315568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8272180596391976</v>
+        <v>0.741546441175968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8171358238379622</v>
+        <v>0.7175089462118377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998030106371609</v>
+        <v>0.927421018399829</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003775547850999532</v>
+        <v>0.1817425012140199</v>
       </c>
       <c r="G5" t="n">
-        <v>1.155393630780367</v>
+        <v>1.728280137925513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6540945550574608</v>
+        <v>1.010454119627835</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009241965489536318</v>
+        <v>0.1406325511514172</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04245520284527223</v>
+        <v>1.509547239958013</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01943076903007066</v>
+        <v>0.4263126800999707</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005805009314365</v>
+        <v>0.9294028231238221</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01973678421865129</v>
+        <v>0.4330266786552111</v>
       </c>
       <c r="N5" t="n">
-        <v>145.7635897474248</v>
+        <v>37.41032884442923</v>
       </c>
       <c r="O5" t="n">
-        <v>287.0987622906412</v>
+        <v>74.37491243265505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_3</t>
+          <t>model_1_47_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999909345225944</v>
+        <v>0.9481093216885024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8271481210205852</v>
+        <v>0.7413587276577773</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8175814633373519</v>
+        <v>0.7179578969473994</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998103181497104</v>
+        <v>0.9236800798160918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003773529172034574</v>
+        <v>0.1819033219211565</v>
       </c>
       <c r="G6" t="n">
-        <v>1.155861310645065</v>
+        <v>1.729535379085995</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6525005284078067</v>
+        <v>1.00884824887839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008899125765485558</v>
+        <v>0.1478811749972291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04205256211347918</v>
+        <v>1.524789354993757</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01942557379341618</v>
+        <v>0.4265012566466323</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005801905539585</v>
+        <v>0.9293403529375351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01973150716221283</v>
+        <v>0.4332182250939752</v>
       </c>
       <c r="N6" t="n">
-        <v>145.7646593770004</v>
+        <v>37.40855986255302</v>
       </c>
       <c r="O6" t="n">
-        <v>287.0998319202167</v>
+        <v>74.37314345077884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_6</t>
+          <t>model_1_47_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998992969874498</v>
+        <v>0.9481029460307925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8269137678134992</v>
+        <v>0.7408674885728278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8161149569490546</v>
+        <v>0.72013481125865</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997383916262746</v>
+        <v>0.9096806978917691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004191789781916196</v>
+        <v>0.1819256718567248</v>
       </c>
       <c r="G7" t="n">
-        <v>1.157428431619946</v>
+        <v>1.732820297109001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6577461367258201</v>
+        <v>1.001061552611791</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001227363511866146</v>
+        <v>0.1750070556744512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03913204498418472</v>
+        <v>1.591781251563874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0204738608521114</v>
+        <v>0.4265274573303867</v>
       </c>
       <c r="L7" t="n">
-        <v>1.00644499280321</v>
+        <v>0.9293316711908663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02079630369417989</v>
+        <v>0.4332448384123076</v>
       </c>
       <c r="N7" t="n">
-        <v>145.554425147317</v>
+        <v>37.40831414342696</v>
       </c>
       <c r="O7" t="n">
-        <v>286.8895976905334</v>
+        <v>74.37289773165278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_5</t>
+          <t>model_1_47_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999053700922949</v>
+        <v>0.948094147107833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8269136928745322</v>
+        <v>0.7408488957638963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8165869062106765</v>
+        <v>0.7200401107336876</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997657585679628</v>
+        <v>0.9102626527095738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003938995171414506</v>
+        <v>0.1819565165742683</v>
       </c>
       <c r="G8" t="n">
-        <v>1.157428932737164</v>
+        <v>1.732944627307938</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6560580015821891</v>
+        <v>1.00140029089853</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00109896859399283</v>
+        <v>0.1738794318241525</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03787011924405119</v>
+        <v>1.588011227719164</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01984690195323821</v>
+        <v>0.4265636137486041</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006056314093129</v>
+        <v>0.9293196896787513</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02015947081937841</v>
+        <v>0.4332815642579689</v>
       </c>
       <c r="N8" t="n">
-        <v>145.6788294276572</v>
+        <v>37.40797508074571</v>
       </c>
       <c r="O8" t="n">
-        <v>287.0140019708736</v>
+        <v>74.37255866897154</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998995102410763</v>
+        <v>0.9480793868207051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8268983979534814</v>
+        <v>0.740764334776425</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8160832665757402</v>
+        <v>0.7200033753534083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997363696183269</v>
+        <v>0.9108686378662119</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004182913042781315</v>
+        <v>0.1820082589169864</v>
       </c>
       <c r="G9" t="n">
-        <v>1.157531209944658</v>
+        <v>1.733510087020526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6578594913536524</v>
+        <v>1.001531691223749</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001236849977227768</v>
+        <v>0.1727052456250767</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03877747542926194</v>
+        <v>1.584769531810834</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02045217113849118</v>
+        <v>0.4266242596442288</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006431344571119</v>
+        <v>0.9292995905643644</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0207742723892519</v>
+        <v>0.4333431652658261</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5586649359495</v>
+        <v>37.40740642854033</v>
       </c>
       <c r="O9" t="n">
-        <v>286.8938374791659</v>
+        <v>74.37199001676615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_8</t>
+          <t>model_1_47_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998994787907771</v>
+        <v>0.947958452117949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8268468015999043</v>
+        <v>0.7399957471812622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8160166059336861</v>
+        <v>0.7197525403857914</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997279143210372</v>
+        <v>0.9167680832730767</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004184222169881088</v>
+        <v>0.1824321967972127</v>
       </c>
       <c r="G10" t="n">
-        <v>1.157876234998607</v>
+        <v>1.7386496358084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6580979326050735</v>
+        <v>1.002428913358667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001276518903827948</v>
+        <v>0.1612741943805666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03830141461702583</v>
+        <v>1.554518981766189</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02045537134808628</v>
+        <v>0.4271208222473036</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006433357390264</v>
+        <v>0.9291349135223136</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02077752299894909</v>
+        <v>0.4338475482335186</v>
       </c>
       <c r="N10" t="n">
-        <v>145.5580390934947</v>
+        <v>37.40275339878143</v>
       </c>
       <c r="O10" t="n">
-        <v>286.893211636711</v>
+        <v>74.36733698700725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_9</t>
+          <t>model_1_47_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998962577028931</v>
+        <v>0.9479485213021569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8268253288081502</v>
+        <v>0.7399421134395153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8156570283971651</v>
+        <v>0.7197065255432025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997080540770548</v>
+        <v>0.9174650705196863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004318300812978293</v>
+        <v>0.1824670093770587</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15801982365594</v>
+        <v>1.739008284886422</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6593841206037057</v>
+        <v>1.002593505782514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001369695350949357</v>
+        <v>0.1599236781229718</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03777179006118547</v>
+        <v>1.551150600400175</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0207805216801174</v>
+        <v>0.4271615729171559</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006639507014839</v>
+        <v>0.9291213907093201</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02110779412367862</v>
+        <v>0.4338889406856855</v>
       </c>
       <c r="N11" t="n">
-        <v>145.4949567548479</v>
+        <v>37.40237178567444</v>
       </c>
       <c r="O11" t="n">
-        <v>286.8301292980643</v>
+        <v>74.36695537390025</v>
       </c>
     </row>
   </sheetData>
